--- a/Code/Results/Cases/Case_0_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1510907690455667</v>
+        <v>0.04837695099705286</v>
       </c>
       <c r="D2">
-        <v>0.3389210058106897</v>
+        <v>0.1654233272190879</v>
       </c>
       <c r="E2">
-        <v>1.478660189292199</v>
+        <v>0.4065214141587177</v>
       </c>
       <c r="F2">
-        <v>6.693476606007891</v>
+        <v>3.263238663950631</v>
       </c>
       <c r="G2">
-        <v>0.0007522910434869948</v>
+        <v>0.002479414180627874</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.726076114732962</v>
+        <v>2.08322645173314</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1287551753859475</v>
+        <v>0.0429487227180374</v>
       </c>
       <c r="D3">
-        <v>0.2973366685052241</v>
+        <v>0.1556740527298217</v>
       </c>
       <c r="E3">
-        <v>1.248022671408151</v>
+        <v>0.3541088049937287</v>
       </c>
       <c r="F3">
-        <v>5.804324624135887</v>
+        <v>3.05905824376805</v>
       </c>
       <c r="G3">
-        <v>0.0007674921092033901</v>
+        <v>0.002487328911097215</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.867009827133643</v>
+        <v>1.900019779856621</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1155049051790797</v>
+        <v>0.03964073651280842</v>
       </c>
       <c r="D4">
-        <v>0.2730310614309985</v>
+        <v>0.1497338257248089</v>
       </c>
       <c r="E4">
-        <v>1.112947705136563</v>
+        <v>0.3221122585896552</v>
       </c>
       <c r="F4">
-        <v>5.281616935275622</v>
+        <v>2.935197352526131</v>
       </c>
       <c r="G4">
-        <v>0.0007768747365275385</v>
+        <v>0.002492423977776161</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.359427377641452</v>
+        <v>1.789369609338735</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.110201121060669</v>
+        <v>0.03829870345259678</v>
       </c>
       <c r="D5">
-        <v>0.2633803839363793</v>
+        <v>0.1473237035714874</v>
       </c>
       <c r="E5">
-        <v>1.059230558087805</v>
+        <v>0.3091156347294799</v>
       </c>
       <c r="F5">
-        <v>5.073451608971936</v>
+        <v>2.885086278962575</v>
       </c>
       <c r="G5">
-        <v>0.0007807202817564653</v>
+        <v>0.002494559739637043</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.156681783798717</v>
+        <v>1.74473124387606</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1093256711580182</v>
+        <v>0.03807621408034834</v>
       </c>
       <c r="D6">
-        <v>0.2617918134492641</v>
+        <v>0.146924114931636</v>
       </c>
       <c r="E6">
-        <v>1.05038282249447</v>
+        <v>0.3069599818509943</v>
       </c>
       <c r="F6">
-        <v>5.039152155320807</v>
+        <v>2.876786859891695</v>
       </c>
       <c r="G6">
-        <v>0.0007813604168514755</v>
+        <v>0.002494917982069</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.123240014676242</v>
+        <v>1.737346116877177</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1154330137036936</v>
+        <v>0.039622613465923</v>
       </c>
       <c r="D7">
-        <v>0.2728999459592814</v>
+        <v>0.1497012804508557</v>
       </c>
       <c r="E7">
-        <v>1.11221826112012</v>
+        <v>0.321936816207554</v>
       </c>
       <c r="F7">
-        <v>5.27879114354144</v>
+        <v>2.934520086790769</v>
       </c>
       <c r="G7">
-        <v>0.0007769264981146494</v>
+        <v>0.002492452540097843</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.356677568381201</v>
+        <v>1.788765781767665</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.14327950688687</v>
+        <v>0.04649994386571166</v>
       </c>
       <c r="D8">
-        <v>0.3242920636561593</v>
+        <v>0.1620516711690101</v>
       </c>
       <c r="E8">
-        <v>1.397569033520924</v>
+        <v>0.3884085248336646</v>
       </c>
       <c r="F8">
-        <v>6.381417125014764</v>
+        <v>3.19251500449235</v>
       </c>
       <c r="G8">
-        <v>0.0007575285607545716</v>
+        <v>0.002482094499877864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.425147178408281</v>
+        <v>2.01966880485827</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2027381447376513</v>
+        <v>0.06019800091988259</v>
       </c>
       <c r="D9">
-        <v>0.4379067927115443</v>
+        <v>0.186679564883093</v>
       </c>
       <c r="E9">
-        <v>2.027440273532306</v>
+        <v>0.5204300962234498</v>
       </c>
       <c r="F9">
-        <v>8.784498900401786</v>
+        <v>3.711134600427073</v>
       </c>
       <c r="G9">
-        <v>0.0007193289983309446</v>
+        <v>0.002463636800355556</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.729625300367104</v>
+        <v>2.487555486019744</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2515400257873779</v>
+        <v>0.0704110083863867</v>
       </c>
       <c r="D10">
-        <v>0.5349983692006219</v>
+        <v>0.2050870733451973</v>
       </c>
       <c r="E10">
-        <v>2.568663412878507</v>
+        <v>0.6187393870277447</v>
       </c>
       <c r="F10">
-        <v>10.80176057958295</v>
+        <v>4.100970710706349</v>
       </c>
       <c r="G10">
-        <v>0.0006901379401380804</v>
+        <v>0.00245118758800939</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.646735730083151</v>
+        <v>2.841243672064536</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2755711892893515</v>
+        <v>0.07509405223717636</v>
       </c>
       <c r="D11">
-        <v>0.5840950029773921</v>
+        <v>0.2135433964136837</v>
       </c>
       <c r="E11">
-        <v>2.844542429273076</v>
+        <v>0.6638141786506679</v>
       </c>
       <c r="F11">
-        <v>11.80941213112828</v>
+        <v>4.280467923527056</v>
       </c>
       <c r="G11">
-        <v>0.0006762645555659517</v>
+        <v>0.002445761417285965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.60036463865822</v>
+        <v>3.004469851095109</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2850239238271683</v>
+        <v>0.07687309338791692</v>
       </c>
       <c r="D12">
-        <v>0.6036455952770439</v>
+        <v>0.2167586280764624</v>
       </c>
       <c r="E12">
-        <v>2.954940846144368</v>
+        <v>0.6809390667023791</v>
       </c>
       <c r="F12">
-        <v>12.20836325636446</v>
+        <v>4.348768513992241</v>
       </c>
       <c r="G12">
-        <v>0.0006708813021831662</v>
+        <v>0.002443740431504835</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.97737232348192</v>
+        <v>3.066628143610103</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2829706103274248</v>
+        <v>0.07648968717735727</v>
       </c>
       <c r="D13">
-        <v>0.5993872552581649</v>
+        <v>0.2160655739076844</v>
       </c>
       <c r="E13">
-        <v>2.9308660627009</v>
+        <v>0.6772483383592203</v>
       </c>
       <c r="F13">
-        <v>12.12157868025281</v>
+        <v>4.33404383374392</v>
       </c>
       <c r="G13">
-        <v>0.0006720473594021712</v>
+        <v>0.002444174189086037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.89538484695225</v>
+        <v>3.05322555364063</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2763411644590406</v>
+        <v>0.07524029932467613</v>
       </c>
       <c r="D14">
-        <v>0.5856824208187561</v>
+        <v>0.2138076483067266</v>
       </c>
       <c r="E14">
-        <v>2.853493909963703</v>
+        <v>0.6652218998418675</v>
       </c>
       <c r="F14">
-        <v>11.84185395502834</v>
+        <v>4.286080355473644</v>
       </c>
       <c r="G14">
-        <v>0.0006758245914527067</v>
+        <v>0.002445594474094179</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.63103275310914</v>
+        <v>3.009576600278706</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2723296124459011</v>
+        <v>0.07447576237379394</v>
       </c>
       <c r="D15">
-        <v>0.5774218439343883</v>
+        <v>0.2124263310318781</v>
       </c>
       <c r="E15">
-        <v>2.806935391670379</v>
+        <v>0.657862815079838</v>
       </c>
       <c r="F15">
-        <v>11.67293929854731</v>
+        <v>4.25674472664781</v>
       </c>
       <c r="G15">
-        <v>0.0006781197395753203</v>
+        <v>0.002446468830947972</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.47133150062149</v>
+        <v>2.982886073818236</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2500132714408636</v>
+        <v>0.07010573574208934</v>
       </c>
       <c r="D16">
-        <v>0.5319081628614128</v>
+        <v>0.2045361911970076</v>
       </c>
       <c r="E16">
-        <v>2.551357513350482</v>
+        <v>0.61580119785188</v>
       </c>
       <c r="F16">
-        <v>10.73806024912273</v>
+        <v>4.089285154558979</v>
       </c>
       <c r="G16">
-        <v>0.0006910292447008518</v>
+        <v>0.002451546945317911</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.586374150352128</v>
+        <v>2.830624459461831</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2368456924286164</v>
+        <v>0.06743460575842164</v>
       </c>
       <c r="D17">
-        <v>0.5053987618331064</v>
+        <v>0.1997178056749647</v>
       </c>
       <c r="E17">
-        <v>2.403145934621421</v>
+        <v>0.5900919421791855</v>
       </c>
       <c r="F17">
-        <v>10.190249875088</v>
+        <v>3.987120052992509</v>
       </c>
       <c r="G17">
-        <v>0.0006987701883719217</v>
+        <v>0.002454722703547811</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.06685063583808</v>
+        <v>2.737823043102253</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2294375592370557</v>
+        <v>0.06590171314724103</v>
       </c>
       <c r="D18">
-        <v>0.4905959675221254</v>
+        <v>0.1969541093306759</v>
       </c>
       <c r="E18">
-        <v>2.320561790128764</v>
+        <v>0.5753376006587416</v>
       </c>
       <c r="F18">
-        <v>9.883293808771896</v>
+        <v>3.928559456994094</v>
       </c>
       <c r="G18">
-        <v>0.0007031700509996528</v>
+        <v>0.002456571644817052</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.775387254377051</v>
+        <v>2.684664796602135</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2269555055106309</v>
+        <v>0.06538328795100767</v>
       </c>
       <c r="D19">
-        <v>0.4856542499464069</v>
+        <v>0.1960196599573578</v>
       </c>
       <c r="E19">
-        <v>2.293017718704036</v>
+        <v>0.5703475353533207</v>
       </c>
       <c r="F19">
-        <v>9.780650856056667</v>
+        <v>3.908765995372931</v>
       </c>
       <c r="G19">
-        <v>0.0007046518323292543</v>
+        <v>0.002457201508925929</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.677863500841852</v>
+        <v>2.666703502653661</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2382297304457097</v>
+        <v>0.06771859046922657</v>
       </c>
       <c r="D20">
-        <v>0.5081732002474268</v>
+        <v>0.2002299248807162</v>
       </c>
       <c r="E20">
-        <v>2.418637829834367</v>
+        <v>0.5928252895634074</v>
       </c>
       <c r="F20">
-        <v>10.24769695709472</v>
+        <v>3.9979746568265</v>
       </c>
       <c r="G20">
-        <v>0.0006979518543831679</v>
+        <v>0.002454382329846758</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.121368699198513</v>
+        <v>2.747679189165126</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2782779326571188</v>
+        <v>0.07560711807390419</v>
       </c>
       <c r="D21">
-        <v>0.5896793283412478</v>
+        <v>0.2144704937817039</v>
       </c>
       <c r="E21">
-        <v>2.876042041067336</v>
+        <v>0.6687527929912136</v>
       </c>
       <c r="F21">
-        <v>11.92349992641761</v>
+        <v>4.30015931643743</v>
       </c>
       <c r="G21">
-        <v>0.0006747190921037998</v>
+        <v>0.002445176387455403</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.70820625712201</v>
+        <v>3.022387804933203</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3065787864193652</v>
+        <v>0.0807959644309193</v>
       </c>
       <c r="D22">
-        <v>0.6487414050564837</v>
+        <v>0.2238538720026497</v>
       </c>
       <c r="E22">
-        <v>3.210962386858967</v>
+        <v>0.7187050005081375</v>
       </c>
       <c r="F22">
-        <v>13.12360425802541</v>
+        <v>4.49958036885107</v>
       </c>
       <c r="G22">
-        <v>0.0006587428402700543</v>
+        <v>0.002439356569602128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.84131913317941</v>
+        <v>3.203960910546982</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2912395338656921</v>
+        <v>0.07802342343930491</v>
       </c>
       <c r="D23">
-        <v>0.6165755140162901</v>
+        <v>0.2188384249788271</v>
       </c>
       <c r="E23">
-        <v>3.028143399306046</v>
+        <v>0.6920126797773349</v>
       </c>
       <c r="F23">
-        <v>12.47149352380933</v>
+        <v>4.392963167848393</v>
       </c>
       <c r="G23">
-        <v>0.0006673622323454167</v>
+        <v>0.002442444808077883</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.22588232554426</v>
+        <v>3.106861365772886</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.237603508214022</v>
+        <v>0.0675901923613651</v>
       </c>
       <c r="D24">
-        <v>0.5069175302309077</v>
+        <v>0.1999983757579002</v>
       </c>
       <c r="E24">
-        <v>2.411625882571158</v>
+        <v>0.5915894618350279</v>
       </c>
       <c r="F24">
-        <v>10.22170055965466</v>
+        <v>3.993066745237513</v>
       </c>
       <c r="G24">
-        <v>0.00069832197746319</v>
+        <v>0.002454536140761856</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.09669888959121</v>
+        <v>2.743222620593258</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1859447503516378</v>
+        <v>0.0564676171431131</v>
       </c>
       <c r="D25">
-        <v>0.4052948520504742</v>
+        <v>0.1799667363336539</v>
       </c>
       <c r="E25">
-        <v>1.846489139932828</v>
+        <v>0.4845059269482448</v>
       </c>
       <c r="F25">
-        <v>8.099487982835541</v>
+        <v>3.569366308597097</v>
       </c>
       <c r="G25">
-        <v>0.0007297693050823854</v>
+        <v>0.002468433510945671</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.075454678553172</v>
+        <v>2.359290125037148</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04837695099705286</v>
+        <v>0.1510907690463483</v>
       </c>
       <c r="D2">
-        <v>0.1654233272190879</v>
+        <v>0.3389210058106471</v>
       </c>
       <c r="E2">
-        <v>0.4065214141587177</v>
+        <v>1.478660189292256</v>
       </c>
       <c r="F2">
-        <v>3.263238663950631</v>
+        <v>6.693476606008005</v>
       </c>
       <c r="G2">
-        <v>0.002479414180627874</v>
+        <v>0.0007522910434733651</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.08322645173314</v>
+        <v>5.726076114732848</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0429487227180374</v>
+        <v>0.1287551753862033</v>
       </c>
       <c r="D3">
-        <v>0.1556740527298217</v>
+        <v>0.2973366685052383</v>
       </c>
       <c r="E3">
-        <v>0.3541088049937287</v>
+        <v>1.248022671408094</v>
       </c>
       <c r="F3">
-        <v>3.05905824376805</v>
+        <v>5.804324624135774</v>
       </c>
       <c r="G3">
-        <v>0.002487328911097215</v>
+        <v>0.0007674921091765843</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.900019779856621</v>
+        <v>4.867009827133643</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03964073651280842</v>
+        <v>0.1155049051789376</v>
       </c>
       <c r="D4">
-        <v>0.1497338257248089</v>
+        <v>0.273031061430558</v>
       </c>
       <c r="E4">
-        <v>0.3221122585896552</v>
+        <v>1.112947705136548</v>
       </c>
       <c r="F4">
-        <v>2.935197352526131</v>
+        <v>5.28161693527565</v>
       </c>
       <c r="G4">
-        <v>0.002492423977776161</v>
+        <v>0.0007768747366710963</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.789369609338735</v>
+        <v>4.359427377641339</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03829870345259678</v>
+        <v>0.1102011210608111</v>
       </c>
       <c r="D5">
-        <v>0.1473237035714874</v>
+        <v>0.2633803839361946</v>
       </c>
       <c r="E5">
-        <v>0.3091156347294799</v>
+        <v>1.059230558087819</v>
       </c>
       <c r="F5">
-        <v>2.885086278962575</v>
+        <v>5.073451608971936</v>
       </c>
       <c r="G5">
-        <v>0.002494559739637043</v>
+        <v>0.00078072028153312</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.74473124387606</v>
+        <v>4.156681783798717</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03807621408034834</v>
+        <v>0.1093256711587287</v>
       </c>
       <c r="D6">
-        <v>0.146924114931636</v>
+        <v>0.2617918134494772</v>
       </c>
       <c r="E6">
-        <v>0.3069599818509943</v>
+        <v>1.050382822494527</v>
       </c>
       <c r="F6">
-        <v>2.876786859891695</v>
+        <v>5.039152155320778</v>
       </c>
       <c r="G6">
-        <v>0.002494917982069</v>
+        <v>0.0007813604169417821</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.737346116877177</v>
+        <v>4.123240014676185</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.039622613465923</v>
+        <v>0.1154330137036652</v>
       </c>
       <c r="D7">
-        <v>0.1497012804508557</v>
+        <v>0.2728999459591108</v>
       </c>
       <c r="E7">
-        <v>0.321936816207554</v>
+        <v>1.112218261120063</v>
       </c>
       <c r="F7">
-        <v>2.934520086790769</v>
+        <v>5.278791143541469</v>
       </c>
       <c r="G7">
-        <v>0.002492452540097843</v>
+        <v>0.0007769264980537205</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.788765781767665</v>
+        <v>4.356677568380974</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04649994386571166</v>
+        <v>0.1432795068872394</v>
       </c>
       <c r="D8">
-        <v>0.1620516711690101</v>
+        <v>0.3242920636563298</v>
       </c>
       <c r="E8">
-        <v>0.3884085248336646</v>
+        <v>1.397569033520853</v>
       </c>
       <c r="F8">
-        <v>3.19251500449235</v>
+        <v>6.381417125014792</v>
       </c>
       <c r="G8">
-        <v>0.002482094499877864</v>
+        <v>0.0007575285606973114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.01966880485827</v>
+        <v>5.425147178408338</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06019800091988259</v>
+        <v>0.2027381447380918</v>
       </c>
       <c r="D9">
-        <v>0.186679564883093</v>
+        <v>0.4379067927116012</v>
       </c>
       <c r="E9">
-        <v>0.5204300962234498</v>
+        <v>2.02744027353225</v>
       </c>
       <c r="F9">
-        <v>3.711134600427073</v>
+        <v>8.784498900401672</v>
       </c>
       <c r="G9">
-        <v>0.002463636800355556</v>
+        <v>0.0007193289984498908</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.487555486019744</v>
+        <v>7.729625300367104</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0704110083863867</v>
+        <v>0.2515400257868947</v>
       </c>
       <c r="D10">
-        <v>0.2050870733451973</v>
+        <v>0.5349983692006788</v>
       </c>
       <c r="E10">
-        <v>0.6187393870277447</v>
+        <v>2.568663412878536</v>
       </c>
       <c r="F10">
-        <v>4.100970710706349</v>
+        <v>10.80176057958283</v>
       </c>
       <c r="G10">
-        <v>0.00245118758800939</v>
+        <v>0.0006901379402606887</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.841243672064536</v>
+        <v>9.646735730083151</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07509405223717636</v>
+        <v>0.2755711892894368</v>
       </c>
       <c r="D11">
-        <v>0.2135433964136837</v>
+        <v>0.584095002976909</v>
       </c>
       <c r="E11">
-        <v>0.6638141786506679</v>
+        <v>2.844542429273062</v>
       </c>
       <c r="F11">
-        <v>4.280467923527056</v>
+        <v>11.8094121311284</v>
       </c>
       <c r="G11">
-        <v>0.002445761417285965</v>
+        <v>0.000676264555460622</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.004469851095109</v>
+        <v>10.60036463865805</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07687309338791692</v>
+        <v>0.2850239238271541</v>
       </c>
       <c r="D12">
-        <v>0.2167586280764624</v>
+        <v>0.6036455952770439</v>
       </c>
       <c r="E12">
-        <v>0.6809390667023791</v>
+        <v>2.954940846144225</v>
       </c>
       <c r="F12">
-        <v>4.348768513992241</v>
+        <v>12.20836325636441</v>
       </c>
       <c r="G12">
-        <v>0.002443740431504835</v>
+        <v>0.000670881302185728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.066628143610103</v>
+        <v>10.9773723234818</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07648968717735727</v>
+        <v>0.2829706103260889</v>
       </c>
       <c r="D13">
-        <v>0.2160655739076844</v>
+        <v>0.5993872552578807</v>
       </c>
       <c r="E13">
-        <v>0.6772483383592203</v>
+        <v>2.930866062701028</v>
       </c>
       <c r="F13">
-        <v>4.33404383374392</v>
+        <v>12.12157868025281</v>
       </c>
       <c r="G13">
-        <v>0.002444174189086037</v>
+        <v>0.0006720473593949322</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.05322555364063</v>
+        <v>10.8953848469522</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07524029932467613</v>
+        <v>0.2763411644595948</v>
       </c>
       <c r="D14">
-        <v>0.2138076483067266</v>
+        <v>0.5856824208188129</v>
       </c>
       <c r="E14">
-        <v>0.6652218998418675</v>
+        <v>2.853493909963731</v>
       </c>
       <c r="F14">
-        <v>4.286080355473644</v>
+        <v>11.84185395502834</v>
       </c>
       <c r="G14">
-        <v>0.002445594474094179</v>
+        <v>0.0006758245913362129</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.009576600278706</v>
+        <v>10.63103275310937</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07447576237379394</v>
+        <v>0.2723296124458159</v>
       </c>
       <c r="D15">
-        <v>0.2124263310318781</v>
+        <v>0.577421843934502</v>
       </c>
       <c r="E15">
-        <v>0.657862815079838</v>
+        <v>2.806935391670422</v>
       </c>
       <c r="F15">
-        <v>4.25674472664781</v>
+        <v>11.67293929854748</v>
       </c>
       <c r="G15">
-        <v>0.002446468830947972</v>
+        <v>0.000678119739561163</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.982886073818236</v>
+        <v>10.47133150062155</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07010573574208934</v>
+        <v>0.2500132714416878</v>
       </c>
       <c r="D16">
-        <v>0.2045361911970076</v>
+        <v>0.5319081628615265</v>
       </c>
       <c r="E16">
-        <v>0.61580119785188</v>
+        <v>2.551357513350496</v>
       </c>
       <c r="F16">
-        <v>4.089285154558979</v>
+        <v>10.73806024912278</v>
       </c>
       <c r="G16">
-        <v>0.002451546945317911</v>
+        <v>0.0006910292446657973</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.830624459461831</v>
+        <v>9.586374150352185</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06743460575842164</v>
+        <v>0.2368456924287159</v>
       </c>
       <c r="D17">
-        <v>0.1997178056749647</v>
+        <v>0.5053987618331632</v>
       </c>
       <c r="E17">
-        <v>0.5900919421791855</v>
+        <v>2.403145934621449</v>
       </c>
       <c r="F17">
-        <v>3.987120052992509</v>
+        <v>10.19024987508783</v>
       </c>
       <c r="G17">
-        <v>0.002454722703547811</v>
+        <v>0.0006987701882841214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.737823043102253</v>
+        <v>9.066850635838023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06590171314724103</v>
+        <v>0.2294375592379509</v>
       </c>
       <c r="D18">
-        <v>0.1969541093306759</v>
+        <v>0.4905959675221538</v>
       </c>
       <c r="E18">
-        <v>0.5753376006587416</v>
+        <v>2.320561790128764</v>
       </c>
       <c r="F18">
-        <v>3.928559456994094</v>
+        <v>9.883293808771867</v>
       </c>
       <c r="G18">
-        <v>0.002456571644817052</v>
+        <v>0.0007031700510040202</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.684664796602135</v>
+        <v>8.775387254376881</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06538328795100767</v>
+        <v>0.2269555055101335</v>
       </c>
       <c r="D19">
-        <v>0.1960196599573578</v>
+        <v>0.4856542499466627</v>
       </c>
       <c r="E19">
-        <v>0.5703475353533207</v>
+        <v>2.293017718703965</v>
       </c>
       <c r="F19">
-        <v>3.908765995372931</v>
+        <v>9.780650856056525</v>
       </c>
       <c r="G19">
-        <v>0.002457201508925929</v>
+        <v>0.0007046518319977637</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.666703502653661</v>
+        <v>8.677863500841909</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06771859046922657</v>
+        <v>0.2382297304457666</v>
       </c>
       <c r="D20">
-        <v>0.2002299248807162</v>
+        <v>0.5081732002479384</v>
       </c>
       <c r="E20">
-        <v>0.5928252895634074</v>
+        <v>2.418637829834296</v>
       </c>
       <c r="F20">
-        <v>3.9979746568265</v>
+        <v>10.24769695709458</v>
       </c>
       <c r="G20">
-        <v>0.002454382329846758</v>
+        <v>0.0006979518543963223</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.747679189165126</v>
+        <v>9.121368699198285</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07560711807390419</v>
+        <v>0.2782779326561524</v>
       </c>
       <c r="D21">
-        <v>0.2144704937817039</v>
+        <v>0.5896793283412478</v>
       </c>
       <c r="E21">
-        <v>0.6687527929912136</v>
+        <v>2.876042041067393</v>
       </c>
       <c r="F21">
-        <v>4.30015931643743</v>
+        <v>11.92349992641761</v>
       </c>
       <c r="G21">
-        <v>0.002445176387455403</v>
+        <v>0.0006747190921990717</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.022387804933203</v>
+        <v>10.70820625712196</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0807959644309193</v>
+        <v>0.306578786419351</v>
       </c>
       <c r="D22">
-        <v>0.2238538720026497</v>
+        <v>0.6487414050567679</v>
       </c>
       <c r="E22">
-        <v>0.7187050005081375</v>
+        <v>3.210962386858938</v>
       </c>
       <c r="F22">
-        <v>4.49958036885107</v>
+        <v>13.12360425802547</v>
       </c>
       <c r="G22">
-        <v>0.002439356569602128</v>
+        <v>0.0006587428402421757</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.203960910546982</v>
+        <v>11.8413191331793</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07802342343930491</v>
+        <v>0.2912395338653084</v>
       </c>
       <c r="D23">
-        <v>0.2188384249788271</v>
+        <v>0.6165755140160627</v>
       </c>
       <c r="E23">
-        <v>0.6920126797773349</v>
+        <v>3.028143399305975</v>
       </c>
       <c r="F23">
-        <v>4.392963167848393</v>
+        <v>12.47149352380916</v>
       </c>
       <c r="G23">
-        <v>0.002442444808077883</v>
+        <v>0.0006673622324827494</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.106861365772886</v>
+        <v>11.22588232554403</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0675901923613651</v>
+        <v>0.2376035082149457</v>
       </c>
       <c r="D24">
-        <v>0.1999983757579002</v>
+        <v>0.5069175302308508</v>
       </c>
       <c r="E24">
-        <v>0.5915894618350279</v>
+        <v>2.411625882571187</v>
       </c>
       <c r="F24">
-        <v>3.993066745237513</v>
+        <v>10.22170055965472</v>
       </c>
       <c r="G24">
-        <v>0.002454536140761856</v>
+        <v>0.000698321977471614</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.743222620593258</v>
+        <v>9.096698889591494</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0564676171431131</v>
+        <v>0.1859447503511973</v>
       </c>
       <c r="D25">
-        <v>0.1799667363336539</v>
+        <v>0.4052948520502611</v>
       </c>
       <c r="E25">
-        <v>0.4845059269482448</v>
+        <v>1.846489139932842</v>
       </c>
       <c r="F25">
-        <v>3.569366308597097</v>
+        <v>8.099487982835626</v>
       </c>
       <c r="G25">
-        <v>0.002468433510945671</v>
+        <v>0.0007297693049741483</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.359290125037148</v>
+        <v>7.075454678553172</v>
       </c>
       <c r="L25">
         <v>0</v>
